--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/15/seed4/result_data_KNN.xlsx
@@ -539,7 +539,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.816</v>
+        <v>-7.959000000000001</v>
       </c>
       <c r="E6" t="n">
         <v>16.12</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>6.306</v>
+        <v>5.815</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.118</v>
+        <v>16.604</v>
       </c>
     </row>
     <row r="8">
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.79</v>
+        <v>-21.752</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -610,7 +610,7 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>16.644</v>
+        <v>16.492</v>
       </c>
     </row>
     <row r="11">
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.784000000000001</v>
+        <v>5.927000000000001</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.462</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="14">
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.508</v>
+        <v>6.225</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.254000000000001</v>
+        <v>-8.231999999999999</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.75</v>
+        <v>16.737</v>
       </c>
     </row>
     <row r="17">
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.108</v>
+        <v>-22.049</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.304</v>
+        <v>-20.457</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.216</v>
+        <v>16.598</v>
       </c>
     </row>
     <row r="21">
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>17.22</v>
+        <v>17.075</v>
       </c>
     </row>
     <row r="25">
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.354000000000001</v>
+        <v>6.097</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.63</v>
+        <v>-21.489</v>
       </c>
       <c r="B27" t="n">
-        <v>5.904</v>
+        <v>5.62</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.602</v>
+        <v>6.241000000000001</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -998,7 +998,7 @@
         <v>-12.22</v>
       </c>
       <c r="D33" t="n">
-        <v>-7.822</v>
+        <v>-7.955000000000001</v>
       </c>
       <c r="E33" t="n">
         <v>17.52</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-19.846</v>
+        <v>-19.873</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.831999999999999</v>
+        <v>-7.551</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>9.068000000000001</v>
+        <v>8.847000000000001</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,13 +1077,13 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>6.369999999999999</v>
+        <v>6.198</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.608000000000001</v>
+        <v>-8.669</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.146</v>
+        <v>16.222</v>
       </c>
     </row>
     <row r="40">
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.348000000000001</v>
+        <v>-7.87</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.328</v>
+        <v>-7.741</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1236,10 +1236,10 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-8.054</v>
+        <v>-7.749</v>
       </c>
       <c r="E47" t="n">
-        <v>16.964</v>
+        <v>17.01</v>
       </c>
     </row>
     <row r="48">
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.29800000000001</v>
+        <v>17.159</v>
       </c>
     </row>
     <row r="49">
@@ -1298,13 +1298,13 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.08</v>
+        <v>5.326</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.444000000000001</v>
+        <v>-8.42</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.286</v>
+        <v>5.11</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>16.45</v>
+        <v>16.412</v>
       </c>
     </row>
     <row r="53">
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.122</v>
+        <v>5.705</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.676</v>
+        <v>16.759</v>
       </c>
     </row>
     <row r="57">
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.23</v>
+        <v>-7.972999999999999</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.109999999999999</v>
+        <v>-7.336999999999999</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.284</v>
+        <v>-21.404</v>
       </c>
       <c r="B69" t="n">
-        <v>5.634</v>
+        <v>6.328</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,13 +1621,13 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>4.912000000000001</v>
+        <v>5.412</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.028</v>
+        <v>-6.797</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.186</v>
+        <v>-20.66</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.154</v>
+        <v>-19.993</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.636</v>
+        <v>6.02</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.922</v>
+        <v>-22.156</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-19.91</v>
+        <v>-20.219</v>
       </c>
       <c r="B83" t="n">
-        <v>8.571999999999999</v>
+        <v>7.879</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.216</v>
+        <v>16.617</v>
       </c>
     </row>
     <row r="85">
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-8.029999999999999</v>
+        <v>-7.934</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.532</v>
+        <v>-21.609</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.13</v>
+        <v>-8.217000000000001</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.4</v>
+        <v>16.489</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>17.108</v>
+        <v>16.793</v>
       </c>
     </row>
     <row r="102">
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.302000000000001</v>
+        <v>7.13</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
